--- a/CashFlow/STE_cashflow.xlsx
+++ b/CashFlow/STE_cashflow.xlsx
@@ -75,7 +75,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1098000000.0</v>
+        <v>-13771000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1056000000.0</v>
+        <v>-38005000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>775294000.0</v>
+        <v>-41460000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>473672000.0</v>
+        <v>-39067000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>243138000.0</v>
+        <v>-15350000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-7990000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-15143000.0</v>
+        <v>542000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-11265000.0</v>
+        <v>548000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-1609000.0</v>
+        <v>422122000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-28390000.0</v>
+        <v>244330000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>12814000.0</v>
+        <v>152365000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>21001000.0</v>
